--- a/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
+++ b/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>Gespräch mit dem "Kunden" über Use Cases und Features</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Einarbeiten in Asp.net core Techniken</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Aufsetzen verschiedener Webprojekte, Austesten der MVC Struktur</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Erste View Seiten erstellt</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>Erste vollständige Verbindung von View -&gt; Controller -&gt; Datenbank hergestellt</t>
   </si>
 </sst>
 </file>
@@ -392,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +461,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42721</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42722</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42723</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42724</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
+++ b/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Erste vollständige Verbindung von View -&gt; Controller -&gt; Datenbank hergestellt</t>
+  </si>
+  <si>
+    <t>FullCalendar Komponente eingebunden</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Reservierungsvorgang erfolgreich implementiert</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +514,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42726</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42727</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
+++ b/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Reservierungsvorgang erfolgreich implementiert</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Kleinere Anpassungen an der Oberfläche, Anzeigen der Kurse hinzugefügt, refactoring und Funktionalitäten im ViewModelbereich</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +542,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42732</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
+++ b/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Kleinere Anpassungen an der Oberfläche, Anzeigen der Kurse hinzugefügt, refactoring und Funktionalitäten im ViewModelbereich</t>
+  </si>
+  <si>
+    <t>Vorbereitung Learning Video Skript und Aufnahmen</t>
+  </si>
+  <si>
+    <t>Schneiden des Learning Videos</t>
+  </si>
+  <si>
+    <t>Freigabeverwaltung für einzelne Termine eines Kurses</t>
+  </si>
+  <si>
+    <t>Detailansicht zu einem Kurs mit detaillierten Angaben zu Wochenstunden</t>
+  </si>
+  <si>
+    <t>Erste Seite zum Anlegen eines neuen Kurses erstellt (Monatskalender mit Datumsauswahl)</t>
+  </si>
+  <si>
+    <t>71h</t>
   </si>
 </sst>
 </file>
@@ -431,15 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,6 +572,66 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42733</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42402</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42403</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
+++ b/Additional Files/Zeiterfassung_MarcusMarohn_741986.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -57,9 +57,6 @@
     <t>6h</t>
   </si>
   <si>
-    <t>Erste View Seiten erstellt</t>
-  </si>
-  <si>
     <t>7h</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>Kleinere Anpassungen an der Oberfläche, Anzeigen der Kurse hinzugefügt, refactoring und Funktionalitäten im ViewModelbereich</t>
   </si>
   <si>
-    <t>Vorbereitung Learning Video Skript und Aufnahmen</t>
-  </si>
-  <si>
-    <t>Schneiden des Learning Videos</t>
-  </si>
-  <si>
     <t>Freigabeverwaltung für einzelne Termine eines Kurses</t>
   </si>
   <si>
@@ -96,7 +87,13 @@
     <t>Erste Seite zum Anlegen eines neuen Kurses erstellt (Monatskalender mit Datumsauswahl)</t>
   </si>
   <si>
-    <t>71h</t>
+    <t>Erste View Seiten erstellt und an Controller angebunden</t>
+  </si>
+  <si>
+    <t>Use Case- und Screenbeschreibungen aktualisiert und zum repository hinzugefügt</t>
+  </si>
+  <si>
+    <t>61h</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,10 +530,10 @@
         <v>42724</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +552,10 @@
         <v>42727</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,10 +563,10 @@
         <v>42732</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,56 +577,45 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42735</v>
+        <v>42402</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42370</v>
+        <v>42403</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42402</v>
+        <v>42741</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42403</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
